--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N2">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O2">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P2">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q2">
-        <v>48.73366570747275</v>
+        <v>50.93020199992875</v>
       </c>
       <c r="R2">
-        <v>48.73366570747275</v>
+        <v>203.720807999715</v>
       </c>
       <c r="S2">
-        <v>0.01213205598860055</v>
+        <v>0.009124001909081829</v>
       </c>
       <c r="T2">
-        <v>0.01213205598860055</v>
+        <v>0.004832100196580804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N3">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P3">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q3">
-        <v>94.74627861668463</v>
+        <v>105.781102731777</v>
       </c>
       <c r="R3">
-        <v>94.74627861668463</v>
+        <v>634.686616390662</v>
       </c>
       <c r="S3">
-        <v>0.02358671649674215</v>
+        <v>0.01895038592760469</v>
       </c>
       <c r="T3">
-        <v>0.02358671649674215</v>
+        <v>0.01505427626142546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N4">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O4">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P4">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q4">
-        <v>10.16233531129393</v>
+        <v>11.1515878393615</v>
       </c>
       <c r="R4">
-        <v>10.16233531129393</v>
+        <v>66.909527036169</v>
       </c>
       <c r="S4">
-        <v>0.002529873736804601</v>
+        <v>0.001997775479778587</v>
       </c>
       <c r="T4">
-        <v>0.002529873736804601</v>
+        <v>0.001587042295380318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N5">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O5">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P5">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q5">
-        <v>31.13578655681243</v>
+        <v>32.29884126417949</v>
       </c>
       <c r="R5">
-        <v>31.13578655681243</v>
+        <v>193.793047585077</v>
       </c>
       <c r="S5">
-        <v>0.007751132615875482</v>
+        <v>0.005786246230790855</v>
       </c>
       <c r="T5">
-        <v>0.007751132615875482</v>
+        <v>0.004596621388489455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N6">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O6">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P6">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q6">
-        <v>33.4012117238986</v>
+        <v>35.830222448067</v>
       </c>
       <c r="R6">
-        <v>33.4012117238986</v>
+        <v>214.981334688402</v>
       </c>
       <c r="S6">
-        <v>0.008315101374762827</v>
+        <v>0.006418883200570208</v>
       </c>
       <c r="T6">
-        <v>0.008315101374762827</v>
+        <v>0.005099191191164351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N7">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O7">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P7">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q7">
-        <v>56.1738675306592</v>
+        <v>74.80679249147624</v>
       </c>
       <c r="R7">
-        <v>56.1738675306592</v>
+        <v>299.227169965905</v>
       </c>
       <c r="S7">
-        <v>0.0139842652114242</v>
+        <v>0.01340142569050624</v>
       </c>
       <c r="T7">
-        <v>0.0139842652114242</v>
+        <v>0.007097437326169399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N8">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O8">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P8">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q8">
-        <v>408.0078907331562</v>
+        <v>438.0888690469666</v>
       </c>
       <c r="R8">
-        <v>408.0078907331562</v>
+        <v>2628.5332142818</v>
       </c>
       <c r="S8">
-        <v>0.1015719729330035</v>
+        <v>0.07848238413697269</v>
       </c>
       <c r="T8">
-        <v>0.1015719729330035</v>
+        <v>0.06234677736732729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N9">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P9">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q9">
-        <v>793.2345891083213</v>
+        <v>909.9026087186934</v>
       </c>
       <c r="R9">
-        <v>793.2345891083213</v>
+        <v>8189.12347846824</v>
       </c>
       <c r="S9">
-        <v>0.1974726568882143</v>
+        <v>0.1630064836389125</v>
       </c>
       <c r="T9">
-        <v>0.1974726568882143</v>
+        <v>0.1942396830184682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N10">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O10">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P10">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q10">
-        <v>85.08108173459892</v>
+        <v>95.92317157176446</v>
       </c>
       <c r="R10">
-        <v>85.08108173459892</v>
+        <v>863.30854414588</v>
       </c>
       <c r="S10">
-        <v>0.02118060343276365</v>
+        <v>0.01718436538985624</v>
       </c>
       <c r="T10">
-        <v>0.02118060343276365</v>
+        <v>0.02047701178312148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N11">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O11">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P11">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q11">
-        <v>260.6749649332215</v>
+        <v>277.8265603771155</v>
       </c>
       <c r="R11">
-        <v>260.6749649332215</v>
+        <v>2500.43904339404</v>
       </c>
       <c r="S11">
-        <v>0.06489401573810587</v>
+        <v>0.0497718439694778</v>
       </c>
       <c r="T11">
-        <v>0.06489401573810587</v>
+        <v>0.05930848258337734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N12">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O12">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P12">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q12">
-        <v>279.6415526220048</v>
+        <v>308.20261875256</v>
       </c>
       <c r="R12">
-        <v>279.6415526220048</v>
+        <v>2773.82356877304</v>
       </c>
       <c r="S12">
-        <v>0.06961567376264757</v>
+        <v>0.05521362907389039</v>
       </c>
       <c r="T12">
-        <v>0.06961567376264757</v>
+        <v>0.06579295234273479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N13">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O13">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P13">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q13">
-        <v>470.2987323605654</v>
+        <v>643.4693331801</v>
       </c>
       <c r="R13">
-        <v>470.2987323605654</v>
+        <v>3860.8159990806</v>
       </c>
       <c r="S13">
-        <v>0.1170790349861029</v>
+        <v>0.1152757144842869</v>
       </c>
       <c r="T13">
-        <v>0.1170790349861029</v>
+        <v>0.09157557311546582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N14">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O14">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P14">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q14">
-        <v>153.8244901846109</v>
+        <v>304.8547607753583</v>
       </c>
       <c r="R14">
-        <v>153.8244901846109</v>
+        <v>1829.12856465215</v>
       </c>
       <c r="S14">
-        <v>0.03829400682763481</v>
+        <v>0.0546138697684911</v>
       </c>
       <c r="T14">
-        <v>0.03829400682763481</v>
+        <v>0.04338551659798828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N15">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P15">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q15">
-        <v>299.0601628981464</v>
+        <v>633.1777904178467</v>
       </c>
       <c r="R15">
-        <v>299.0601628981464</v>
+        <v>5698.600113760621</v>
       </c>
       <c r="S15">
-        <v>0.07444986104716449</v>
+        <v>0.1134320136521102</v>
       </c>
       <c r="T15">
-        <v>0.07444986104716449</v>
+        <v>0.1351663926739217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N16">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O16">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P16">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q16">
-        <v>32.07671792489759</v>
+        <v>66.75046454829889</v>
       </c>
       <c r="R16">
-        <v>32.07671792489759</v>
+        <v>600.75418093469</v>
       </c>
       <c r="S16">
-        <v>0.007985373809787748</v>
+        <v>0.01195815728301313</v>
       </c>
       <c r="T16">
-        <v>0.007985373809787748</v>
+        <v>0.0142494251043581</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N17">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O17">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P17">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q17">
-        <v>98.27798553770857</v>
+        <v>193.3323478066411</v>
       </c>
       <c r="R17">
-        <v>98.27798553770857</v>
+        <v>1739.99113025977</v>
       </c>
       <c r="S17">
-        <v>0.02446592115904648</v>
+        <v>0.03463494432002318</v>
       </c>
       <c r="T17">
-        <v>0.02446592115904648</v>
+        <v>0.04127124551061496</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N18">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O18">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P18">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q18">
-        <v>105.4286454833441</v>
+        <v>214.47026447978</v>
       </c>
       <c r="R18">
-        <v>105.4286454833441</v>
+        <v>1930.23238031802</v>
       </c>
       <c r="S18">
-        <v>0.02624605006083338</v>
+        <v>0.03842174241833039</v>
       </c>
       <c r="T18">
-        <v>0.02624605006083338</v>
+        <v>0.04578362100544184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N19">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O19">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P19">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q19">
-        <v>177.3089795146793</v>
+        <v>447.773736090675</v>
       </c>
       <c r="R19">
-        <v>177.3089795146793</v>
+        <v>2686.64241654405</v>
       </c>
       <c r="S19">
-        <v>0.04414037884336427</v>
+        <v>0.08021740072685626</v>
       </c>
       <c r="T19">
-        <v>0.04414037884336427</v>
+        <v>0.06372508275709858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N20">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O20">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P20">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q20">
-        <v>48.55046533499117</v>
+        <v>60.935385785555</v>
       </c>
       <c r="R20">
-        <v>48.55046533499117</v>
+        <v>365.61231471333</v>
       </c>
       <c r="S20">
-        <v>0.01208644897045789</v>
+        <v>0.01091640233900544</v>
       </c>
       <c r="T20">
-        <v>0.01208644897045789</v>
+        <v>0.00867204167873277</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N21">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P21">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q21">
-        <v>94.39010689674858</v>
+        <v>126.561687381316</v>
       </c>
       <c r="R21">
-        <v>94.39010689674858</v>
+        <v>1139.055186431844</v>
       </c>
       <c r="S21">
-        <v>0.02349804893633825</v>
+        <v>0.02267316900265505</v>
       </c>
       <c r="T21">
-        <v>0.02349804893633825</v>
+        <v>0.02701750913083655</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N22">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O22">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P22">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q22">
-        <v>10.12413289850014</v>
+        <v>13.34230535967533</v>
       </c>
       <c r="R22">
-        <v>10.12413289850014</v>
+        <v>120.080748237078</v>
       </c>
       <c r="S22">
-        <v>0.002520363395150929</v>
+        <v>0.002390236339007663</v>
       </c>
       <c r="T22">
-        <v>0.002520363395150929</v>
+        <v>0.00284822258884211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N23">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O23">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P23">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q23">
-        <v>31.01874041197789</v>
+        <v>38.64391413295266</v>
       </c>
       <c r="R23">
-        <v>31.01874041197789</v>
+        <v>347.795227196574</v>
       </c>
       <c r="S23">
-        <v>0.007721994434666086</v>
+        <v>0.006922948122686566</v>
       </c>
       <c r="T23">
-        <v>0.007721994434666086</v>
+        <v>0.00824943412608486</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N24">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O24">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P24">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q24">
-        <v>33.27564935668648</v>
+        <v>42.869031378636</v>
       </c>
       <c r="R24">
-        <v>33.27564935668648</v>
+        <v>385.821282407724</v>
       </c>
       <c r="S24">
-        <v>0.00828384311321069</v>
+        <v>0.007679865949475536</v>
       </c>
       <c r="T24">
-        <v>0.00828384311321069</v>
+        <v>0.009151382781527301</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N25">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O25">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P25">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q25">
-        <v>55.96269783295741</v>
+        <v>89.50250697718499</v>
       </c>
       <c r="R25">
-        <v>55.96269783295741</v>
+        <v>537.01504186311</v>
       </c>
       <c r="S25">
-        <v>0.01393169533886439</v>
+        <v>0.01603412145368259</v>
       </c>
       <c r="T25">
-        <v>0.01393169533886439</v>
+        <v>0.0127375819624533</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N26">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O26">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P26">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q26">
-        <v>27.63220794323017</v>
+        <v>28.5465463117525</v>
       </c>
       <c r="R26">
-        <v>27.63220794323017</v>
+        <v>171.279277870515</v>
       </c>
       <c r="S26">
-        <v>0.006878930385992217</v>
+        <v>0.005114033183031298</v>
       </c>
       <c r="T26">
-        <v>0.006878930385992217</v>
+        <v>0.004062612162177815</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N27">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P27">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q27">
-        <v>53.72156669474598</v>
+        <v>59.290657202678</v>
       </c>
       <c r="R27">
-        <v>53.72156669474598</v>
+        <v>533.615914824102</v>
       </c>
       <c r="S27">
-        <v>0.01337377448370476</v>
+        <v>0.01062175385655661</v>
       </c>
       <c r="T27">
-        <v>0.01337377448370476</v>
+        <v>0.01265695729482771</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N28">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O28">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P28">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q28">
-        <v>5.76208989071483</v>
+        <v>6.250501788827666</v>
       </c>
       <c r="R28">
-        <v>5.76208989071483</v>
+        <v>56.25451609944899</v>
       </c>
       <c r="S28">
-        <v>0.001434449802834804</v>
+        <v>0.001119759749903658</v>
       </c>
       <c r="T28">
-        <v>0.001434449802834804</v>
+        <v>0.001334313666687822</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N29">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O29">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P29">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q29">
-        <v>17.65413120732978</v>
+        <v>18.10360712814633</v>
       </c>
       <c r="R29">
-        <v>17.65413120732978</v>
+        <v>162.932464153317</v>
       </c>
       <c r="S29">
-        <v>0.004394927102817607</v>
+        <v>0.00324321010937097</v>
       </c>
       <c r="T29">
-        <v>0.004394927102817607</v>
+        <v>0.003864632188508398</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N30">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O30">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P30">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q30">
-        <v>18.93863748010854</v>
+        <v>20.082957936738</v>
       </c>
       <c r="R30">
-        <v>18.93863748010854</v>
+        <v>180.746621430642</v>
       </c>
       <c r="S30">
-        <v>0.004714699929113967</v>
+        <v>0.003597805218896714</v>
       </c>
       <c r="T30">
-        <v>0.004714699929113967</v>
+        <v>0.004287170238140539</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N31">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O31">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P31">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q31">
-        <v>31.85083588622038</v>
+        <v>41.9294540849175</v>
       </c>
       <c r="R31">
-        <v>31.85083588622038</v>
+        <v>251.576724509505</v>
       </c>
       <c r="S31">
-        <v>0.007929141357328692</v>
+        <v>0.007511543329792434</v>
       </c>
       <c r="T31">
-        <v>0.007929141357328692</v>
+        <v>0.005967205568707711</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N32">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O32">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P32">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q32">
-        <v>26.78386392002939</v>
+        <v>31.3600095107675</v>
       </c>
       <c r="R32">
-        <v>26.78386392002939</v>
+        <v>125.44003804307</v>
       </c>
       <c r="S32">
-        <v>0.006667738450445116</v>
+        <v>0.005618057172548958</v>
       </c>
       <c r="T32">
-        <v>0.006667738450445116</v>
+        <v>0.002975340803124392</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N33">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O33">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P33">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q33">
-        <v>52.07224608612498</v>
+        <v>65.134169067946</v>
       </c>
       <c r="R33">
-        <v>52.07224608612498</v>
+        <v>390.805014407676</v>
       </c>
       <c r="S33">
-        <v>0.01296318255148583</v>
+        <v>0.01166860251061304</v>
       </c>
       <c r="T33">
-        <v>0.01296318255148583</v>
+        <v>0.009269593054759223</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N34">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O34">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P34">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q34">
-        <v>5.585186382678976</v>
+        <v>6.866532763860334</v>
       </c>
       <c r="R34">
-        <v>5.585186382678976</v>
+        <v>41.199196583162</v>
       </c>
       <c r="S34">
-        <v>0.001390410364534521</v>
+        <v>0.001230119959986066</v>
       </c>
       <c r="T34">
-        <v>0.001390410364534521</v>
+        <v>0.000977213117615098</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N35">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O35">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P35">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q35">
-        <v>17.11212686495836</v>
+        <v>19.88784511855767</v>
       </c>
       <c r="R35">
-        <v>17.11212686495836</v>
+        <v>119.327070711346</v>
       </c>
       <c r="S35">
-        <v>0.004259997235912349</v>
+        <v>0.003562851308335626</v>
       </c>
       <c r="T35">
-        <v>0.004259997235912349</v>
+        <v>0.002830345940128576</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N36">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O36">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P36">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q36">
-        <v>18.35719715703248</v>
+        <v>22.062274890366</v>
       </c>
       <c r="R36">
-        <v>18.35719715703248</v>
+        <v>132.373649342196</v>
       </c>
       <c r="S36">
-        <v>0.004569952628635255</v>
+        <v>0.003952394263401294</v>
       </c>
       <c r="T36">
-        <v>0.004569952628635255</v>
+        <v>0.003139800707100271</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N37">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O37">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P37">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q37">
-        <v>30.87297460515529</v>
+        <v>46.0618971039225</v>
       </c>
       <c r="R37">
-        <v>30.87297460515529</v>
+        <v>184.24758841569</v>
       </c>
       <c r="S37">
-        <v>0.007685706605627934</v>
+        <v>0.008251858830497227</v>
       </c>
       <c r="T37">
-        <v>0.007685706605627934</v>
+        <v>0.004370210470617415</v>
       </c>
     </row>
   </sheetData>
